--- a/testData/Python.xlsx
+++ b/testData/Python.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavit\git\project\DsAlgoCucumberProject\DSalgoCucumberProj\src\test\resources\Utlils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavit\git\Testng_DSalgo\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9ED6730-A606-49EF-85D7-66491CC5551D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB445B6-0634-45B5-8F5A-10F369E0395D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4FF80413-38D8-4CE1-B3DB-07C7AD1BCA43}"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="1" r:id="rId1"/>
-    <sheet name="Array" sheetId="2" r:id="rId2"/>
+    <sheet name="Login" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>print('Hello, world!')</t>
   </si>
@@ -59,13 +59,31 @@
   </si>
   <si>
     <t>Hello</t>
+  </si>
+  <si>
+    <t>usename</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>ninja</t>
+  </si>
+  <si>
+    <t>ninja4</t>
+  </si>
+  <si>
+    <t>Tiger123@</t>
+  </si>
+  <si>
+    <t>Tiger123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +95,14 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,10 +122,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -107,8 +134,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -469,14 +498,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE3254F-ED8D-4A06-98AD-F72D33D45DCF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{8B23BD5C-99F7-4CA2-AD15-BB695FC568A2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testData/Python.xlsx
+++ b/testData/Python.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavit\git\Testng_DSalgo\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavit\git\project\DsAlgoCucumberProject\DSalgoCucumberProj\src\test\resources\Utlils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB445B6-0634-45B5-8F5A-10F369E0395D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9ED6730-A606-49EF-85D7-66491CC5551D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4FF80413-38D8-4CE1-B3DB-07C7AD1BCA43}"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="1" r:id="rId1"/>
-    <sheet name="Login" sheetId="2" r:id="rId2"/>
+    <sheet name="Array" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>print('Hello, world!')</t>
   </si>
@@ -60,30 +60,12 @@
   <si>
     <t>Hello</t>
   </si>
-  <si>
-    <t>usename</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>ninja</t>
-  </si>
-  <si>
-    <t>ninja4</t>
-  </si>
-  <si>
-    <t>Tiger123@</t>
-  </si>
-  <si>
-    <t>Tiger123</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,14 +77,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,11 +96,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -134,10 +107,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -498,42 +469,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE3254F-ED8D-4A06-98AD-F72D33D45DCF}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{8B23BD5C-99F7-4CA2-AD15-BB695FC568A2}"/>
-  </hyperlinks>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>